--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2077394.185788364</v>
+        <v>2199575.838522519</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797168</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5178540.338642257</v>
+        <v>5571398.925118465</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>206.6769876894567</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>229.0753070626128</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>8.909245336631358</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>318.0004189017058</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>381.4533962178656</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1060,7 +1062,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494614</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.133574646794216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>177.6731094009113</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>355.4893395033073</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>14.14416275345371</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>54.66258501924893</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,19 +1372,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>194.4541938439572</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>175.0349193669804</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561542</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1528,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>126.7641785672305</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1576,13 +1578,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695604</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.180779608842869</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1771,13 +1773,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>102.5724179071726</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1813,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,10 +1824,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695746</v>
+        <v>166.3197703738371</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,10 +1846,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>27.97358346682203</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2132,13 +2134,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790296</v>
       </c>
     </row>
     <row r="23">
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>129.7139627068451</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2725,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>214.3693806674597</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3740,16 +3742,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>125.5425054610476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.681079151028</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056502</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28373344958394</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>278.9688933757614</v>
       </c>
     </row>
     <row r="45">
@@ -4144,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>30.80549757377472</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225767</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.8788077480212</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C2" t="n">
-        <v>829.7767389718487</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D2" t="n">
-        <v>797.9073581866973</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E2" t="n">
-        <v>768.1730173853965</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932281</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2118.422015902527</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1713.566561313561</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X2" t="n">
-        <v>1294.424097892871</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y2" t="n">
-        <v>886.137974192525</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="3">
@@ -4416,19 +4418,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>1375.081325612185</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>1716.640978007438</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>968.896903337504</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>318.768219792197</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0611657539532</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4486,13 +4488,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4531,7 +4533,7 @@
         <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1160.715522056491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1340.268492507381</v>
+        <v>1153.221971308027</v>
       </c>
       <c r="C5" t="n">
-        <v>1306.166423731208</v>
+        <v>1119.119902531855</v>
       </c>
       <c r="D5" t="n">
-        <v>1274.297042946057</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E5" t="n">
-        <v>840.5222981043516</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
         <v>53.81800590148855</v>
@@ -4577,10 +4579,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
         <v>1954.407975719776</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2190.771296621483</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.95624607292</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X5" t="n">
-        <v>1770.813782652231</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.527658951884</v>
+        <v>1175.481137752531</v>
       </c>
     </row>
     <row r="6">
@@ -4653,19 +4655,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P6" t="n">
-        <v>1375.081325612185</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>962.7013733912472</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>790.1396618744722</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>624.2616690759949</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
         <v>624.2616690759949</v>
@@ -4723,19 +4725,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4750,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056491</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y7" t="n">
-        <v>1154.519992110234</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415.517618276922</v>
+        <v>2003.531199230768</v>
       </c>
       <c r="C8" t="n">
-        <v>977.375145460345</v>
+        <v>1565.388726414192</v>
       </c>
       <c r="D8" t="n">
-        <v>797.9073581866973</v>
+        <v>1129.478941588636</v>
       </c>
       <c r="E8" t="n">
-        <v>768.1730173853965</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4811,13 +4813,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>2429.830769715676</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4889,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>233.2795245870976</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>67.68824961292523</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2593.428272794124</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2347.54882637258</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1118.971469057165</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C11" t="n">
-        <v>680.8289962405887</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D11" t="n">
-        <v>680.8289962405887</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>680.8289962405887</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F11" t="n">
-        <v>252.9615666497965</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>56.12639965677763</v>
+        <v>861.763421750637</v>
       </c>
       <c r="M11" t="n">
-        <v>176.1286096224173</v>
+        <v>2018.811256961188</v>
       </c>
       <c r="N11" t="n">
-        <v>870.6928053750404</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="O11" t="n">
-        <v>1565.257001127664</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2259.821196880287</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2586.25275571192</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U11" t="n">
-        <v>2327.030453028936</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V11" t="n">
-        <v>1964.413502962762</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W11" t="n">
-        <v>1964.413502962762</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X11" t="n">
-        <v>1545.271039542073</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y11" t="n">
-        <v>1545.271039542073</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N12" t="n">
-        <v>56.12639965677763</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="O12" t="n">
-        <v>750.6905954094008</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>616.1577909643775</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>450.2797981659001</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>450.2797981659001</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2642.319662967024</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1610.431600006645</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C14" t="n">
-        <v>1610.431600006645</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D14" t="n">
-        <v>1174.52181518109</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E14" t="n">
-        <v>1174.52181518109</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F14" t="n">
-        <v>746.6543855902976</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>345.2565542135614</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677764</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L14" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M14" t="n">
-        <v>56.12639965677764</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N14" t="n">
-        <v>750.6905954094009</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O14" t="n">
-        <v>1445.254791162024</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>2139.818986914647</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>2686.317772873242</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772708</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.847578183742</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.705114763052</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1610.431600006645</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056517</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>56.12639965677764</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="L15" t="n">
-        <v>56.12639965677764</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="M15" t="n">
-        <v>56.12639965677764</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8902486565478</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>903.4437844817619</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>730.8820729649868</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>565.0040801665095</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>461.3955772299715</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>284.6885231917278</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.368188264949</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.488741843405</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.05574109651</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.10023296694</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.073828553228</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X16" t="n">
-        <v>1322.682073886641</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.262403200749</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5677,46 +5679,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5750,16 +5752,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5780,10 +5782,10 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
@@ -5832,25 +5834,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>5094.802844496293</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>4848.923398074749</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>4570.490397327854</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>4283.534889198285</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>4011.508484784576</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>3766.116730117989</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="23">
@@ -5993,19 +5995,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6066,28 +6068,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>405.0384966383147</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>405.0384966383147</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>405.0384966383147</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
-        <v>405.0384966383147</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1083.7810821021</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>911.2193705853248</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>745.3413777868475</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>575.5833740375847</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>398.8763199993409</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>233.2850450251686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1748.411126173566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1503.019371506979</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.599700821087</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4584.153287715592</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6309,22 +6311,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
-        <v>1056.803889081883</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>1612.575493976557</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6549,19 +6551,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6700,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6786,16 +6788,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,16 +6940,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>211.240503094076</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993933</v>
@@ -7026,10 +7028,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,43 +7180,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7263,16 +7265,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1978.07327505821</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.655115977914</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1233.235445292023</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1307.656531381678</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>1307.656531381678</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1307.656531381678</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>873.8817865399733</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>747.0711749631575</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6733435864214</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963764</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L41" t="n">
-        <v>1185.945282862319</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M41" t="n">
-        <v>1880.509478614942</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.073674367565</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="O41" t="n">
-        <v>2575.073674367565</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="P41" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189625</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189625</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126518</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999557</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.097680155899</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2547.097680155899</v>
+        <v>3762.9466122504</v>
       </c>
       <c r="W41" t="n">
-        <v>2142.242225566933</v>
+        <v>3358.091157661433</v>
       </c>
       <c r="X41" t="n">
-        <v>2142.242225566933</v>
+        <v>2946.29208781191</v>
       </c>
       <c r="Y41" t="n">
-        <v>1733.956101866586</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056517</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I42" t="n">
-        <v>56.16259937258145</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J42" t="n">
-        <v>380.7209243387938</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>1280.238751550125</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1135.184560268659</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C43" t="n">
-        <v>962.6228487518839</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D43" t="n">
-        <v>796.7448559534066</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2637.229517630298</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2358.796516883403</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.841008753834</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1799.814604340125</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.422849673538</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.003178987646</v>
+        <v>1275.986929424397</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1231.161764629734</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C44" t="n">
-        <v>793.019291813157</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D44" t="n">
-        <v>793.019291813157</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E44" t="n">
-        <v>793.019291813157</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F44" t="n">
-        <v>365.1518622223647</v>
+        <v>495.1679306955897</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963764</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="K44" t="n">
-        <v>553.473330827955</v>
+        <v>760.5646471973135</v>
       </c>
       <c r="L44" t="n">
-        <v>1248.037526580578</v>
+        <v>1835.624613450173</v>
       </c>
       <c r="M44" t="n">
-        <v>1942.601722333202</v>
+        <v>2992.672448660724</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.165918085825</v>
+        <v>2992.672448660724</v>
       </c>
       <c r="O44" t="n">
-        <v>2637.165918085825</v>
+        <v>3972.85211523103</v>
       </c>
       <c r="P44" t="n">
-        <v>2637.165918085825</v>
+        <v>3972.85211523103</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189625</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022719</v>
+        <v>4604.853092126518</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.668109022719</v>
+        <v>4384.785864999557</v>
       </c>
       <c r="U44" t="n">
-        <v>2463.445806339736</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>2463.445806339736</v>
+        <v>3762.9466122504</v>
       </c>
       <c r="W44" t="n">
-        <v>2058.59035175077</v>
+        <v>3358.091157661433</v>
       </c>
       <c r="X44" t="n">
-        <v>1639.44788833008</v>
+        <v>2938.948694240744</v>
       </c>
       <c r="Y44" t="n">
-        <v>1231.161764629734</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>3531.436949455165</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>3424.980488291807</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>3329.89019943836</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>3235.769784765314</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>3152.385946381476</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056517</v>
+        <v>3067.00085664766</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677764</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677764</v>
+        <v>3051.32887762433</v>
       </c>
       <c r="J45" t="n">
-        <v>56.12639965677764</v>
+        <v>3051.32887762433</v>
       </c>
       <c r="K45" t="n">
-        <v>56.12639965677764</v>
+        <v>3051.32887762433</v>
       </c>
       <c r="L45" t="n">
-        <v>213.0649915360002</v>
+        <v>3051.32887762433</v>
       </c>
       <c r="M45" t="n">
-        <v>907.6291872886235</v>
+        <v>3410.927208777528</v>
       </c>
       <c r="N45" t="n">
-        <v>1602.193383041247</v>
+        <v>4571.332187848341</v>
       </c>
       <c r="O45" t="n">
-        <v>1602.193383041247</v>
+        <v>4571.332187848341</v>
       </c>
       <c r="P45" t="n">
-        <v>1602.193383041247</v>
+        <v>4571.332187848341</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>4571.332187848341</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>4625.049528391064</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>4494.870884721666</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>4318.534337721634</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>4119.416819783633</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>3934.094065516827</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>3779.226629755708</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>3652.740850534929</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.8616057763934</v>
+        <v>1027.237870108425</v>
       </c>
       <c r="C46" t="n">
-        <v>752.2998942596183</v>
+        <v>854.6761585916503</v>
       </c>
       <c r="D46" t="n">
-        <v>586.421901461141</v>
+        <v>688.798165793173</v>
       </c>
       <c r="E46" t="n">
-        <v>416.6638977118783</v>
+        <v>519.0401620439102</v>
       </c>
       <c r="F46" t="n">
-        <v>239.9568436736345</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>74.36556869946216</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677764</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2672.786009559577</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2426.906563138033</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2148.473562391138</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1861.518054261568</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1589.49164984786</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1344.099895181272</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="Y46" t="n">
-        <v>1116.680224495381</v>
+        <v>1219.056488827413</v>
       </c>
     </row>
   </sheetData>
@@ -8064,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>347.9676668794094</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N3" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O3" t="n">
-        <v>345.0097498941941</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8535,19 +8537,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8693,25 +8695,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>775.7508307391752</v>
       </c>
       <c r="M11" t="n">
-        <v>121.2143535006462</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>389.5575801148034</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8933,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097205</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>946.6135224089294</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9008,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="N15" t="n">
-        <v>313.9028777775457</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9501,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9653,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,7 +9883,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>534.2310361852406</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
-        <v>715.8552653209142</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1859873202727</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P30" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10434,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10586,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>110.0804674982791</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10674,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10835,7 +10837,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097206</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>62.71943809925233</v>
+        <v>235.7492171845824</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11133,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949879552</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>363.2306375284829</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>62.71943809925205</v>
+        <v>673.5298463418787</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097206</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11379,13 +11381,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>158.5238301810329</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>701.5799957097205</v>
+        <v>363.2306375284834</v>
       </c>
       <c r="N45" t="n">
-        <v>701.5799957097205</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>202.9296592190116</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800139</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>42.83163548871136</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>44.07191583437677</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>411.8858435779283</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>395.0224828545003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>65.48800580459749</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>102.9863699957343</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>197.1718905122108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.789189859684171</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627262</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>69.71657238081411</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>298.0462498338367</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>7.269959635454427</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>378.1001196133848</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>125.2343690875817</v>
       </c>
     </row>
     <row r="45">
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>144.1344859240866</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>322560.6717115918</v>
+        <v>457016.110664408</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>322560.6717115918</v>
+        <v>457016.110664408</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270509</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>487343.2653270509</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270509</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>322560.6717115919</v>
+        <v>457016.110664408</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>322560.671711592</v>
+        <v>457016.110664408</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442321.5389095868</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="C2" t="n">
         <v>442321.5389095869</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.5389095871</v>
       </c>
       <c r="E2" t="n">
-        <v>287689.2477427711</v>
+        <v>407608.9635655531</v>
       </c>
       <c r="F2" t="n">
-        <v>287689.2477427712</v>
+        <v>407608.9635655531</v>
       </c>
       <c r="G2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="K2" t="n">
         <v>434657.5069133157</v>
@@ -26347,13 +26349,13 @@
         <v>434657.5069133157</v>
       </c>
       <c r="N2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="O2" t="n">
-        <v>287689.2477427713</v>
+        <v>407608.9635655531</v>
       </c>
       <c r="P2" t="n">
-        <v>287689.2477427713</v>
+        <v>407608.963565553</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045617</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340787</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>533.6918268873196</v>
+        <v>756.1546847085234</v>
       </c>
       <c r="F4" t="n">
-        <v>533.6918268873196</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="G4" t="n">
-        <v>806.332390782552</v>
+        <v>806.3323907826026</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907825622</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26451,13 +26453,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="O4" t="n">
-        <v>533.69182688737</v>
+        <v>756.1546847085233</v>
       </c>
       <c r="P4" t="n">
-        <v>533.6918268873701</v>
+        <v>756.1546847085233</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232875</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232875</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30904.90954553369</v>
+        <v>30904.90954553377</v>
       </c>
       <c r="C6" t="n">
         <v>254604.6081295786</v>
       </c>
       <c r="D6" t="n">
-        <v>254604.6081295786</v>
+        <v>254604.6081295788</v>
       </c>
       <c r="E6" t="n">
-        <v>234328.4955762766</v>
+        <v>184921.7798267679</v>
       </c>
       <c r="F6" t="n">
-        <v>244499.4921767329</v>
+        <v>335587.5333985158</v>
       </c>
       <c r="G6" t="n">
-        <v>198073.4589706314</v>
+        <v>327043.1267441327</v>
       </c>
       <c r="H6" t="n">
         <v>356132.9359167406</v>
@@ -26543,7 +26545,7 @@
         <v>356132.9359167406</v>
       </c>
       <c r="J6" t="n">
-        <v>181481.5871990345</v>
+        <v>181481.5871990344</v>
       </c>
       <c r="K6" t="n">
         <v>356132.9359167406</v>
@@ -26552,16 +26554,16 @@
         <v>356132.9359167406</v>
       </c>
       <c r="M6" t="n">
-        <v>347643.8542133998</v>
+        <v>230381.84758105</v>
       </c>
       <c r="N6" t="n">
-        <v>356132.9359167405</v>
+        <v>356132.9359167406</v>
       </c>
       <c r="O6" t="n">
-        <v>244499.492176733</v>
+        <v>335587.5333985158</v>
       </c>
       <c r="P6" t="n">
-        <v>244499.4921767329</v>
+        <v>335587.5333985158</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097205</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097205</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097205</v>
+        <v>1172.12624148567</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778137</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750248</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778135</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778137</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750248</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>152.3137928760551</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>185.8757317238696</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>161.926849064976</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>113.5502680755941</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>42.13535907701868</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27780,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.0118993322386</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>253.8775775763886</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>73.94765788998041</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>124.3589898130755</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28144,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.572587892076969e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28752,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.697014169689553e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -34784,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>347.9676668794094</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N3" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O3" t="n">
-        <v>345.0097498941941</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>775.7508307391752</v>
       </c>
       <c r="M11" t="n">
-        <v>121.2143535006462</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>389.5575801148034</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35653,22 +35655,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097205</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>946.6135224089294</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="N15" t="n">
-        <v>313.9028777775457</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -36045,10 +36047,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080455</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645591</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36221,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,10 +36375,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>534.2310361852406</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
-        <v>715.8552653209142</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36838,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1859873202727</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P30" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>110.0804674982791</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37394,13 +37396,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37555,7 +37557,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097206</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>62.71943809925233</v>
+        <v>235.7492171845824</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949879552</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>363.2306375284829</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>62.71943809925205</v>
+        <v>673.5298463418787</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097206</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632046</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>158.5238301810329</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>701.5799957097205</v>
+        <v>363.2306375284834</v>
       </c>
       <c r="N45" t="n">
-        <v>701.5799957097205</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2199575.838522519</v>
+        <v>2198969.750893622</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797168</v>
+        <v>606553.2040797162</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -670,13 +670,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70.75434793228341</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>229.0753070626128</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>8.909245336631358</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900533</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>318.0004189017058</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>161.0734612100933</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1107,10 +1107,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>81.01098805494614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>355.4893395033073</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>54.66258501924893</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>175.0349193669804</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>275.1599094763645</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>24.62703520776669</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>46.2253027104011</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>11.70291171695604</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>145.83876749105</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1824,13 +1824,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>166.3197703738371</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>179.507671948555</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978572</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226156</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>39.88277234055019</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2134,13 +2134,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735226156</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2301,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>125.6544692828952</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790296</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>82.15263531037758</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>3.139541480022602</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3520,10 +3520,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112162</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.05677735226122</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>131.3957105685721</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>407.681079151028</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>122.4914619056502</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3988,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>312.3848216506492</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>278.9688933757614</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>30.80549757377472</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4155,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>54.49360828359006</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.512437976118</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C2" t="n">
-        <v>1351.369965159541</v>
+        <v>1018.798599434575</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>582.8888146090194</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>149.1140697673146</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>125.2870442169263</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>125.2870442169263</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4330,25 +4330,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q2" t="n">
         <v>2500.906761678371</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W2" t="n">
-        <v>2047.406523133708</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.017324080564</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.771604420622</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>968.896903337504</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
         <v>281.9633400635787</v>
@@ -4488,19 +4488,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4533,7 +4533,7 @@
         <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1160.715522056491</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1153.221971308027</v>
+        <v>1671.959615828829</v>
       </c>
       <c r="C5" t="n">
-        <v>1119.119902531855</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D5" t="n">
-        <v>797.9073581866973</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
         <v>768.1730173853965</v>
@@ -4576,13 +4576,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
         <v>1954.407975719776</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.72477542213</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2002.909724873567</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.767261452878</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1175.481137752531</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612185</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>1375.081325612185</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4755,19 +4755,19 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1324.277995859497</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
         <v>1324.277995859497</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2003.531199230768</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>1565.388726414192</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>1129.478941588636</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>770.3988006762045</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4813,10 +4813,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
+        <v>53.40121652862856</v>
+      </c>
+      <c r="N8" t="n">
         <v>714.2412710704069</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
         <v>1375.081325612185</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2449.178548755904</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.076489375619</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>2429.830769715676</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
         <v>1058.729261281022</v>
@@ -4986,16 +4986,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2593.428272794124</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2347.54882637258</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2069.115825625685</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
         <v>2069.115825625685</v>
@@ -5047,37 +5047,37 @@
         <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>861.763421750637</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.811256961188</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N11" t="n">
-        <v>3144.542240397635</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
         <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4511.702017087146</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>4252.479714404163</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>3889.86276433799</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
         <v>3485.007309749023</v>
@@ -5117,28 +5117,28 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1254.175078389668</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154826</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="E13" t="n">
-        <v>664.6305518662199</v>
+        <v>460.9442214704281</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279761</v>
+        <v>284.2371674321843</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>118.6458924580119</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>118.6458924580119</v>
       </c>
       <c r="I13" t="n">
         <v>93.77009931885365</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2642.319662967024</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2396.440216545479</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2396.440216545479</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>2109.48470841591</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1837.458304002201</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055491</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238914</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1230.310742413359</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>796.5359975716538</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885365</v>
@@ -5287,10 +5287,10 @@
         <v>93.77009931885365</v>
       </c>
       <c r="M14" t="n">
-        <v>1250.817934529405</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N14" t="n">
-        <v>2376.548917965851</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
         <v>3313.696305150691</v>
@@ -5305,25 +5305,25 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250401</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661434</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797662</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>867.3348106469373</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>694.7730991301622</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154826</v>
+        <v>528.8951063316849</v>
       </c>
       <c r="E16" t="n">
-        <v>664.6305518662199</v>
+        <v>359.1371025824221</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279761</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="H16" t="n">
         <v>182.4300485441783</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>2005.458072056582</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002201</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1286.573100051816</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>1059.153429365924</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882657</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365882</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674045</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181417</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5679,46 +5679,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.80886177457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954123</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601644</v>
       </c>
     </row>
     <row r="20">
@@ -5752,16 +5752,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1612.575493976557</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5782,10 +5782,10 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713113</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196338</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.438736397861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648598</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354724</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006608</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.808861774569</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496293</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074749</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327854</v>
+        <v>2259.828259430056</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198285</v>
+        <v>1972.872751300486</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.508484784576</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117989</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.697059432101</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5995,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1021.77365348828</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2178.821488698831</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,25 +6065,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>3603.973621145286</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>4584.153287715592</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,25 +6302,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F31" t="n">
-        <v>190.9207894961043</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
-        <v>1431.851786213076</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6776,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>211.240503094076</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>1286.300469346935</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2443.348304557486</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>970.996046390399</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736239</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751466</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258839</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856325</v>
+        <v>286.0912842876401</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134677</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134677</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7341,43 +7341,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1203912770317</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L41" t="n">
-        <v>2003.180357529891</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M41" t="n">
-        <v>3160.228192740442</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="N41" t="n">
-        <v>4285.959176176888</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O41" t="n">
-        <v>4285.959176176888</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P41" t="n">
-        <v>4519.350901189625</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189625</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126518</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999557</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316574</v>
+        <v>4252.062925031303</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.9466122504</v>
+        <v>3889.44597496513</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661433</v>
+        <v>3484.590520376163</v>
       </c>
       <c r="X41" t="n">
-        <v>2946.29208781191</v>
+        <v>3065.448056955473</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8337724793112</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>119.8337724793112</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>119.8337724793112</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1280.238751550125</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
         <v>1639.837082703323</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1084.16831070541</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>911.6065991886352</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>745.7286063901579</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>575.9706026408952</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>399.2635486026514</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>233.6722736284791</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885362</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2710.429709221653</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2464.550262800109</v>
+        <v>2387.917709162805</v>
       </c>
       <c r="U43" t="n">
-        <v>2186.117262053214</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="V43" t="n">
-        <v>1899.161753923644</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1627.135349509936</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X43" t="n">
-        <v>1503.406600110289</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.986929424397</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2230.862362770219</v>
+        <v>2408.082100998615</v>
       </c>
       <c r="C44" t="n">
-        <v>1792.719889953642</v>
+        <v>1969.939628182039</v>
       </c>
       <c r="D44" t="n">
-        <v>1356.810105128087</v>
+        <v>1534.029843356483</v>
       </c>
       <c r="E44" t="n">
-        <v>923.035360286382</v>
+        <v>1100.255098514778</v>
       </c>
       <c r="F44" t="n">
-        <v>495.1679306955897</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>93.77009931885362</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885362</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K44" t="n">
-        <v>760.5646471973135</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L44" t="n">
-        <v>1835.624613450173</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M44" t="n">
-        <v>2992.672448660724</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N44" t="n">
-        <v>2992.672448660724</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>3972.85211523103</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.85211523103</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189625</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126518</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999557</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.9466122504</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661433</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240744</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y44" t="n">
-        <v>2657.161933255127</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3531.436949455165</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>3424.980488291807</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>3329.89019943836</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>3235.769784765314</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>3152.385946381476</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>3067.00085664766</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>3025.265204463873</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>3051.32887762433</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>3051.32887762433</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>3051.32887762433</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L45" t="n">
-        <v>3051.32887762433</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M45" t="n">
-        <v>3410.927208777528</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N45" t="n">
-        <v>4571.332187848341</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O45" t="n">
-        <v>4571.332187848341</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P45" t="n">
-        <v>4571.332187848341</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>4571.332187848341</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>4688.504965942681</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>4625.049528391064</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>4494.870884721666</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>4318.534337721634</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>4119.416819783633</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>3934.094065516827</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>3779.226629755708</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>3652.740850534929</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1027.237870108425</v>
+        <v>907.4612566671665</v>
       </c>
       <c r="C46" t="n">
-        <v>854.6761585916503</v>
+        <v>734.8995451503914</v>
       </c>
       <c r="D46" t="n">
-        <v>688.798165793173</v>
+        <v>569.0215523519141</v>
       </c>
       <c r="E46" t="n">
-        <v>519.0401620439102</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279761</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2655.38566045035</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2409.506214028806</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2131.073213281911</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>1844.117705152341</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1572.091300738633</v>
       </c>
       <c r="X46" t="n">
-        <v>1446.476159513304</v>
+        <v>1326.699546072045</v>
       </c>
       <c r="Y46" t="n">
-        <v>1219.056488827413</v>
+        <v>1099.279875386154</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8224,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O5" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="P5" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N6" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>345.0097498941943</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>667.5152066078568</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>585.1784344521125</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>775.7508307391752</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -8704,16 +8704,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>793.2096923716463</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>389.5575801148034</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>946.6135224089294</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1859873202736</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9658,10 +9658,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9886,13 +9886,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>534.2310361852406</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10117,13 +10117,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>427.9646913560541</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>110.0804674982791</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10600,16 +10600,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10676,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10837,7 +10837,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>954.405546537402</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>235.7492171845824</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11138,19 +11138,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1172.12624148567</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>363.2306375284829</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>673.5298463418787</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>363.2306375284834</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1172.12624148567</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>42.83163548871136</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>125.6469905667125</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>63.14631452530472</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>111.4236523045822</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>411.8858435779283</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>72.02778736464171</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>102.9863699957343</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>63.4301651713667</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627218</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>229.4233680290212</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627218</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>143.6516710866762</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.795820744408</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081019</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>125.2343690875812</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.269959635454427</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>111.2039336442351</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>125.2343690875817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>144.1344859240866</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>103.1553467313932</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270509</v>
       </c>
     </row>
     <row r="11">
@@ -26316,7 +26316,7 @@
         <v>442321.5389095869</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.538909587</v>
       </c>
       <c r="D2" t="n">
         <v>442321.5389095871</v>
@@ -26337,16 +26337,16 @@
         <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="K2" t="n">
         <v>434657.5069133156</v>
-      </c>
-      <c r="K2" t="n">
-        <v>434657.5069133157</v>
       </c>
       <c r="L2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="M2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="N2" t="n">
         <v>434657.5069133157</v>
@@ -26355,7 +26355,7 @@
         <v>407608.9635655531</v>
       </c>
       <c r="P2" t="n">
-        <v>407608.963565553</v>
+        <v>407608.9635655531</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>756.1546847085234</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="F4" t="n">
         <v>756.1546847085235</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826026</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26450,16 +26450,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="O4" t="n">
         <v>756.1546847085233</v>
       </c>
       <c r="P4" t="n">
-        <v>756.1546847085233</v>
+        <v>756.1546847085235</v>
       </c>
     </row>
     <row r="5">
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232875</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232875</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30904.90954553377</v>
+        <v>30904.90954553372</v>
       </c>
       <c r="C6" t="n">
-        <v>254604.6081295786</v>
+        <v>254604.6081295788</v>
       </c>
       <c r="D6" t="n">
         <v>254604.6081295788</v>
       </c>
       <c r="E6" t="n">
-        <v>184921.7798267679</v>
+        <v>184816.5902045133</v>
       </c>
       <c r="F6" t="n">
-        <v>335587.5333985158</v>
+        <v>335482.3437762611</v>
       </c>
       <c r="G6" t="n">
-        <v>327043.1267441327</v>
+        <v>327019.90240475</v>
       </c>
       <c r="H6" t="n">
-        <v>356132.9359167406</v>
+        <v>356109.7115773579</v>
       </c>
       <c r="I6" t="n">
-        <v>356132.9359167406</v>
+        <v>356109.7115773579</v>
       </c>
       <c r="J6" t="n">
-        <v>181481.5871990344</v>
+        <v>181458.3628596518</v>
       </c>
       <c r="K6" t="n">
-        <v>356132.9359167406</v>
+        <v>356109.7115773578</v>
       </c>
       <c r="L6" t="n">
-        <v>356132.9359167406</v>
+        <v>356109.7115773579</v>
       </c>
       <c r="M6" t="n">
-        <v>230381.84758105</v>
+        <v>230358.6232416672</v>
       </c>
       <c r="N6" t="n">
-        <v>356132.9359167406</v>
+        <v>356109.711577358</v>
       </c>
       <c r="O6" t="n">
-        <v>335587.5333985158</v>
+        <v>335482.3437762611</v>
       </c>
       <c r="P6" t="n">
-        <v>335587.5333985158</v>
+        <v>335482.3437762611</v>
       </c>
     </row>
   </sheetData>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778137</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778135</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778137</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>215.4845050789325</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>185.8757317238696</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>161.926849064976</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>48.19697732171677</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>113.5502680755941</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>161.9268490649755</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>73.94765788998041</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27906,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27915,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>102.9863699957344</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28733,7 +28733,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-5.293950842915267e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-4.626503470622263e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O5" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="P5" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N6" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>345.0097498941943</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>667.5152066078568</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>585.1784344521125</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>775.7508307391752</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>793.2096923716463</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>389.5575801148034</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>946.6135224089294</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,10 +36047,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080455</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1859873202736</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.4542274390836</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36378,10 +36378,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,19 +36606,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>534.2310361852406</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36837,13 +36837,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>427.9646913560541</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>110.0804674982791</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37320,16 +37320,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>-2.061388856709333e-13</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37545,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37557,7 +37557,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37709,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37782,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>954.405546537402</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>235.7492171845824</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37858,19 +37858,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1172.12624148567</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>363.2306375284829</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>673.5298463418787</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632046</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>363.2306375284834</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1172.12624148567</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
